--- a/varselect/simulations/simulation30.result.xlsx
+++ b/varselect/simulations/simulation30.result.xlsx
@@ -399,91 +399,91 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.055</v>
+        <v>0.116</v>
       </c>
       <c r="D2">
-        <v>0.028</v>
+        <v>0.058</v>
       </c>
       <c r="G2">
-        <v>0.223</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.006</v>
+        <v>0.093</v>
       </c>
       <c r="C3">
-        <v>0.055</v>
+        <v>0.159</v>
       </c>
       <c r="D3">
-        <v>0.052</v>
+        <v>0.491</v>
       </c>
       <c r="G3">
-        <v>0.223</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.004</v>
+        <v>0.054</v>
       </c>
       <c r="C4">
-        <v>0.057</v>
+        <v>0.14</v>
       </c>
       <c r="D4">
-        <v>0.045</v>
+        <v>0.317</v>
       </c>
       <c r="G4">
-        <v>0.07099999999999999</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="C5">
-        <v>0.057</v>
+        <v>0.123</v>
       </c>
       <c r="D5">
-        <v>0.031</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C6">
-        <v>0.057</v>
+        <v>0.12</v>
       </c>
       <c r="D6">
-        <v>0.03</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C7">
-        <v>0.055</v>
+        <v>0.155</v>
       </c>
       <c r="D7">
-        <v>0.029</v>
+        <v>0.09</v>
       </c>
       <c r="G7">
-        <v>0.305</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.001</v>
+        <v>0.012</v>
       </c>
       <c r="C8">
-        <v>0.055</v>
+        <v>0.166</v>
       </c>
       <c r="D8">
-        <v>0.03</v>
+        <v>0.141</v>
       </c>
       <c r="G8">
-        <v>0.305</v>
+        <v>0.445</v>
       </c>
     </row>
   </sheetData>
